--- a/src/main/resources/Users_APIs_Excel.xlsx
+++ b/src/main/resources/Users_APIs_Excel.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hp\untitled\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2435506-0E5A-4649-9815-57B0EEFE7DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Get_User_ByID" sheetId="2" r:id="rId2"/>
+    <sheet name="Post_Create_User" sheetId="3" r:id="rId3"/>
+    <sheet name="Get_Find_User_Certificate" sheetId="4" r:id="rId4"/>
+    <sheet name="Get_Find_User_Calender" sheetId="5" r:id="rId5"/>
+    <sheet name="Patch_User_Login" sheetId="6" r:id="rId6"/>
+    <sheet name="Post_Find_User" sheetId="7" r:id="rId7"/>
+    <sheet name="delete_User" sheetId="8" r:id="rId8"/>
+    <sheet name="Detail_using_name" sheetId="9" r:id="rId9"/>
+    <sheet name="PostSendOTP" sheetId="10" r:id="rId10"/>
+    <sheet name="PostSendOTPv2" sheetId="11" r:id="rId11"/>
+    <sheet name="PostVerifyOTP" sheetId="12" r:id="rId12"/>
+    <sheet name="PostForgotPassword" sheetId="13" r:id="rId13"/>
+    <sheet name="PostUpdatePassword" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +37,1177 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="238">
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Expected Code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>0067e96f-2f47-4d8f-864a-0906d54173ad</t>
+  </si>
+  <si>
+    <t>Correct id</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>9817d33766574a448a5ebaf81badda6d</t>
+  </si>
+  <si>
+    <t>Correct id without "-"</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>`~!@#$%^&amp;*(&lt;&gt;?[];',./@#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Id with 36 special characters</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>blank id</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Negative value</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>9817d337-6657-4a44-8a5e-        baf81badda6 d</t>
+  </si>
+  <si>
+    <t>Id with spaces in between</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>9817d337-6657-4a4-8a5e</t>
+  </si>
+  <si>
+    <t>Id less than 36 chars</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>9817d337-6657-4a44-88a5e-baf81badda6d-bewdbwy3762278</t>
+  </si>
+  <si>
+    <t>Id greater than 36 characters</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>user_level</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>test2312@mailinator.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty phone number	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid format	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123-abc	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too short	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too Long	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982345678901234567890	</t>
+  </si>
+  <si>
+    <t>"8978664520"</t>
+  </si>
+  <si>
+    <t>with " "</t>
+  </si>
+  <si>
+    <t>Empty Country code</t>
+  </si>
+  <si>
+    <t>123abc@test.com</t>
+  </si>
+  <si>
+    <t>Starts with digit</t>
+  </si>
+  <si>
+    <t>abc@.com</t>
+  </si>
+  <si>
+    <t>Missing domain name</t>
+  </si>
+  <si>
+    <t>abc@test</t>
+  </si>
+  <si>
+    <t>Missing domain extension</t>
+  </si>
+  <si>
+    <t>abc@domain.c</t>
+  </si>
+  <si>
+    <t>Extension &lt; 2 chars</t>
+  </si>
+  <si>
+    <t>abc@domain.toolongext</t>
+  </si>
+  <si>
+    <t>Extension &gt; reasonable length (regex expects ≥2 but no limit; good to test)</t>
+  </si>
+  <si>
+    <t>abc@@domain.com</t>
+  </si>
+  <si>
+    <t>Double @</t>
+  </si>
+  <si>
+    <t>abc domain.com</t>
+  </si>
+  <si>
+    <t>Missing @</t>
+  </si>
+  <si>
+    <t>abc@domain</t>
+  </si>
+  <si>
+    <t>Missing .TLD</t>
+  </si>
+  <si>
+    <t>@domain.com</t>
+  </si>
+  <si>
+    <t>Missing local part</t>
+  </si>
+  <si>
+    <t>abc@domain.c_m</t>
+  </si>
+  <si>
+    <t>Invalid character in extension</t>
+  </si>
+  <si>
+    <t>ExpectedCode</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>Frugal@123</t>
+  </si>
+  <si>
+    <t>Email/phone is empty</t>
+  </si>
+  <si>
+    <t>dharma@frugaltesting.com</t>
+  </si>
+  <si>
+    <t>Password is empty</t>
+  </si>
+  <si>
+    <t>Both email/phone and password are empty</t>
+  </si>
+  <si>
+    <t>dharma@frugal</t>
+  </si>
+  <si>
+    <t>Invalid email format</t>
+  </si>
+  <si>
+    <t>123abc456</t>
+  </si>
+  <si>
+    <t>Valid phone number field but wrong format</t>
+  </si>
+  <si>
+    <t>WrongPass1</t>
+  </si>
+  <si>
+    <t>Incorrect password</t>
+  </si>
+  <si>
+    <t>fakeuser@frugaltesting.com</t>
+  </si>
+  <si>
+    <t>Non-existing email</t>
+  </si>
+  <si>
+    <t>&lt;&gt;!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>Special characters in email/phone</t>
+  </si>
+  <si>
+    <t>Numeric-only email field</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Empty email array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Invalid email (missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Email missing local part</t>
+  </si>
+  <si>
+    <t>Email missing domain</t>
+  </si>
+  <si>
+    <t>Email missing extension</t>
+  </si>
+  <si>
+    <t>Email extension &lt; 2 chars</t>
+  </si>
+  <si>
+    <t>Email with double dots in domain</t>
+  </si>
+  <si>
+    <t>Null emails array</t>
+  </si>
+  <si>
+    <t>Empty number array</t>
+  </si>
+  <si>
+    <t>Number too short</t>
+  </si>
+  <si>
+    <t>Number contains letters</t>
+  </si>
+  <si>
+    <t>Number contains special character</t>
+  </si>
+  <si>
+    <t>Blank string number</t>
+  </si>
+  <si>
+    <t>ranjhj678.com</t>
+  </si>
+  <si>
+    <t>95508!1167</t>
+  </si>
+  <si>
+    <t>abc@domain..com</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @test.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>test@mailinator.com</t>
+  </si>
+  <si>
+    <t>newUser is empty</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>newUser is null</t>
+  </si>
+  <si>
+    <t>newUser set to false (if only "true" allowed)</t>
+  </si>
+  <si>
+    <t>"true"</t>
+  </si>
+  <si>
+    <t>country_code is empty</t>
+  </si>
+  <si>
+    <t>country_code is null</t>
+  </si>
+  <si>
+    <t>country_code without '+' sign</t>
+  </si>
+  <si>
+    <t>email is empty</t>
+  </si>
+  <si>
+    <t>email is null</t>
+  </si>
+  <si>
+    <t>testmailinator.com</t>
+  </si>
+  <si>
+    <t>email missing '@' symbol</t>
+  </si>
+  <si>
+    <t>@mailinator.com</t>
+  </si>
+  <si>
+    <t>email missing local part</t>
+  </si>
+  <si>
+    <t>phone_number is empty</t>
+  </si>
+  <si>
+    <t>phone_number is null</t>
+  </si>
+  <si>
+    <t>phone_number is alphanumeric</t>
+  </si>
+  <si>
+    <t>phone_number too short</t>
+  </si>
+  <si>
+    <t>phone_number too long</t>
+  </si>
+  <si>
+    <t>eamil with out .com</t>
+  </si>
+  <si>
+    <t>test@mailinator</t>
+  </si>
+  <si>
+    <t>"False"</t>
+  </si>
+  <si>
+    <t>"TRUE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user True with Capital </t>
+  </si>
+  <si>
+    <t>%$#%</t>
+  </si>
+  <si>
+    <t>phone_number is Spec Char</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"%$#@"</t>
+  </si>
+  <si>
+    <t>newUser is Special Char</t>
+  </si>
+  <si>
+    <t>country_code is with string</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>country_code is with spec char</t>
+  </si>
+  <si>
+    <t>"+91"</t>
+  </si>
+  <si>
+    <t>"91"</t>
+  </si>
+  <si>
+    <t>All files empty</t>
+  </si>
+  <si>
+    <t>expected_status_code</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>Expected Status Code</t>
+  </si>
+  <si>
+    <t>113.27.124.158</t>
+  </si>
+  <si>
+    <t>"false"</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>ip_address is empty</t>
+  </si>
+  <si>
+    <t>ip_address is null</t>
+  </si>
+  <si>
+    <t>999.999.999.999</t>
+  </si>
+  <si>
+    <t>ip_address is invalid format</t>
+  </si>
+  <si>
+    <t>abcd.ef.gh.ij</t>
+  </si>
+  <si>
+    <t>ip_address is non-numeric</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">newUser is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true instead of false (if API expects false)</t>
+    </r>
+  </si>
+  <si>
+    <t>"FALSE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser_Capital </t>
+  </si>
+  <si>
+    <t>$#@</t>
+  </si>
+  <si>
+    <t>113.27.124.159</t>
+  </si>
+  <si>
+    <t>113.27.124.160</t>
+  </si>
+  <si>
+    <t>113.27.124.161</t>
+  </si>
+  <si>
+    <t>phone_number is Special cahr</t>
+  </si>
+  <si>
+    <t>$#%&amp;</t>
+  </si>
+  <si>
+    <t>newUser is integer</t>
+  </si>
+  <si>
+    <t>empty fileds</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <r>
+      <t>newUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value invalid for flow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>country_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>country_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>country_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> missing '+'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is alphanumeric</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too short</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too long</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is alphabetic instead of numeric</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too short</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too long</t>
+    </r>
+  </si>
+  <si>
+    <t>newUser is Capital</t>
+  </si>
+  <si>
+    <r>
+      <t>country_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>country_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is spec char</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>phone_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is Spec Char</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is Spec char</t>
+    </r>
+  </si>
+  <si>
+    <t>all fileds</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Password is null</t>
+  </si>
+  <si>
+    <t>frugal@123</t>
+  </si>
+  <si>
+    <t>Missing uppercase letter</t>
+  </si>
+  <si>
+    <t>FRUGAL@123</t>
+  </si>
+  <si>
+    <t>Missing lowercase letter</t>
+  </si>
+  <si>
+    <t>Frugal123</t>
+  </si>
+  <si>
+    <t>Missing special character</t>
+  </si>
+  <si>
+    <t>Frugal@</t>
+  </si>
+  <si>
+    <t>Missing number</t>
+  </si>
+  <si>
+    <t>Frugal@123456789012345</t>
+  </si>
+  <si>
+    <t>Exceeds 20 character limit</t>
+  </si>
+  <si>
+    <t>Fr@1</t>
+  </si>
+  <si>
+    <t>Less than 8 characters</t>
+  </si>
+  <si>
+    <t>Frugal @123</t>
+  </si>
+  <si>
+    <t>Contains space</t>
+  </si>
+  <si>
+    <t>Frugal@123$</t>
+  </si>
+  <si>
+    <r>
+      <t>Contains unsupported special character (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not in allowed list)*</t>
+    </r>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>TEST@1234</t>
+  </si>
+  <si>
+    <t>Test1234</t>
+  </si>
+  <si>
+    <t>Test@abcd</t>
+  </si>
+  <si>
+    <t>Te@1</t>
+  </si>
+  <si>
+    <t>Password too short (&lt; 8 characters)</t>
+  </si>
+  <si>
+    <t>Test@1234567890123456789</t>
+  </si>
+  <si>
+    <t>Password too long (&gt; 20 characters)</t>
+  </si>
+  <si>
+    <t>Test @1234</t>
+  </si>
+  <si>
+    <t>New password same as current password</t>
+  </si>
+  <si>
+    <t>Test_1234</t>
+  </si>
+  <si>
+    <r>
+      <t>currentPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>currentPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uppercase and special character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lowercase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password contains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (allowed in your rule, should pass)</t>
+    </r>
+  </si>
+  <si>
+    <t>all fields empty</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1230,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1551,3663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="11">
+        <v>400</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8">
+      <c r="D11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9550821168</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="11">
+        <v>400</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2">
+      <c r="D12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="11">
+        <v>9550821169</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="11">
+        <v>400</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B6FF0-F6C1-4E47-8FF1-F682CC6F9DE0}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E2" s="8">
+        <v>400</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E3" s="8">
+        <v>400</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E4" s="8">
+        <v>400</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E5" s="8">
+        <v>400</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E6" s="8">
+        <v>400</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E7" s="8">
+        <v>400</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E8" s="8">
+        <v>400</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E9" s="8">
+        <v>400</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E10" s="8">
+        <v>400</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E11" s="8">
+        <v>400</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E12" s="8">
+        <v>400</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E13" s="8">
+        <v>400</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E14" s="8">
+        <v>400</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E15" s="8">
+        <v>400</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E16" s="8">
+        <v>400</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="8">
+        <v>400</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="8">
+        <v>400</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="8">
+        <v>400</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="8">
+        <v>400</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="8">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8">
+        <v>400</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="8">
+        <v>123456789012</v>
+      </c>
+      <c r="E22" s="8">
+        <v>400</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8766984526</v>
+      </c>
+      <c r="E23" s="8">
+        <v>400</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8">
+        <v>400</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:test@mailinator.com" xr:uid="{3EBB766F-9BF1-41D9-9E91-EF85A753697F}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:test@mailinator.com" xr:uid="{2C9A613A-86B5-4B89-8CFC-3843E80982B3}"/>
+    <hyperlink ref="C7" r:id="rId3" display="mailto:test@mailinator.com" xr:uid="{B72212D3-54A3-4F99-B360-EE6DFBD63D96}"/>
+    <hyperlink ref="C8" r:id="rId4" display="mailto:test@mailinator.com" xr:uid="{7861224A-6E69-43C2-A424-BE03F31602B1}"/>
+    <hyperlink ref="C11" r:id="rId5" display="mailto:test@mailinator.com" xr:uid="{12F78146-E339-4C56-8460-08FA339641D3}"/>
+    <hyperlink ref="C17" r:id="rId6" display="mailto:test@mailinator.com" xr:uid="{60320DDF-73A6-475D-92D3-126E37380E9B}"/>
+    <hyperlink ref="C18" r:id="rId7" display="mailto:test@mailinator.com" xr:uid="{6938220E-7D49-40FC-B99F-30ED8A61666D}"/>
+    <hyperlink ref="C19" r:id="rId8" display="mailto:test@mailinator.com" xr:uid="{DB89C5E4-F7B5-4EA3-A0CA-8B72078EE813}"/>
+    <hyperlink ref="C21" r:id="rId9" display="mailto:test@mailinator.com" xr:uid="{7E526308-81B1-4E05-841A-F7E02E42F484}"/>
+    <hyperlink ref="C22" r:id="rId10" display="mailto:test@mailinator.com" xr:uid="{859FD1C2-EC9E-45CC-B3B3-78B88AF4B4C9}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{6D004588-15E4-4FE8-9DB8-75B1ABBD50F1}"/>
+    <hyperlink ref="C23" r:id="rId12" display="mailto:test@mailinator.com" xr:uid="{356F19B0-75BE-4F46-B14E-C98DD1B5FDD5}"/>
+    <hyperlink ref="C20" r:id="rId13" display="mailto:test@mailinator.com" xr:uid="{7CFEC0AE-6A86-4AA5-A607-C87E49468492}"/>
+    <hyperlink ref="C4" r:id="rId14" display="mailto:test@mailinator.com" xr:uid="{FE65ACD7-BC00-420F-B663-87E40E532359}"/>
+    <hyperlink ref="C5" r:id="rId15" display="mailto:test@mailinator.com" xr:uid="{CD1F6D6F-3939-4DD5-B942-0CB3D23D4CE1}"/>
+    <hyperlink ref="C9" r:id="rId16" display="mailto:test@mailinator.com" xr:uid="{4C2DC70B-B485-4088-A954-09CC77E3F4FE}"/>
+    <hyperlink ref="C10" r:id="rId17" display="mailto:test@mailinator.com" xr:uid="{07B2701A-7AE7-457B-872E-AB47A7BE2EF3}"/>
+    <hyperlink ref="C6" r:id="rId18" display="mailto:test@mailinator.com" xr:uid="{A3AC6DB6-3A71-4E3C-842D-BBC358040E20}"/>
+    <hyperlink ref="B10" r:id="rId19" xr:uid="{7EF3F55F-7528-4684-BA75-28F3A465DAC3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC51F67-4E52-4665-BC7D-3FEDD8B27C03}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="11">
+        <v>400</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="11">
+        <v>400</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="11">
+        <v>400</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="11">
+        <v>9550821168</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="11">
+        <v>400</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="11">
+        <v>9550821169</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11">
+        <v>400</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="11">
+        <v>400</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="11">
+        <v>400</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="11">
+        <v>400</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9550821168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="11">
+        <v>400</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9550821169</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="11">
+        <v>400</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="11">
+        <v>9550821170</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="11">
+        <v>400</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="11">
+        <v>400</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="11">
+        <v>400</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="11">
+        <v>400</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="11">
+        <v>400</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="11">
+        <v>123</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="11">
+        <v>400</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="11">
+        <v>123456789012</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="11">
+        <v>400</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="11">
+        <v>400</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="11">
+        <v>400</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8">
+      <c r="A21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="11">
+        <v>400</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="11">
+        <v>400</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7">
+        <v>400</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{A97BCF00-4D33-4E34-A83F-DE05B5E7D136}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDFB3A8-8868-4CE8-A3EF-65A383F9CADE}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="7">
+        <v>400</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="7">
+        <v>400</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="7">
+        <v>400</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="11">
+        <v>9550821167</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="7">
+        <v>400</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="11">
+        <v>9550821168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="7">
+        <v>400</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9550821169</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="7">
+        <v>400</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E8" s="7">
+        <v>400</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E9" s="7">
+        <v>400</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E10" s="7">
+        <v>400</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E11" s="7">
+        <v>400</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="7">
+        <v>91</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E12" s="7">
+        <v>400</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E13" s="7">
+        <v>400</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E14" s="7">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E15" s="7">
+        <v>400</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E16" s="7">
+        <v>400</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="7">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E17" s="7">
+        <v>400</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="7">
+        <v>123456789012</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E18" s="7">
+        <v>400</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="7">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="7">
+        <v>400</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="7">
+        <v>400</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="7">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12</v>
+      </c>
+      <c r="E23" s="7">
+        <v>400</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="D24" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="7">
+        <v>400</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="7">
+        <v>400</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="7">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{3B68706C-4F67-4657-9939-793566AE76C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0346EA24-206D-4429-9287-0FC8261825A8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7">
+        <v>400</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="7">
+        <v>400</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="7">
+        <v>400</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="7">
+        <v>400</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="7">
+        <v>400</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="7">
+        <v>400</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="7">
+        <v>400</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="7">
+        <v>400</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="7">
+        <v>400</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="7">
+        <v>400</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4BC902-AB1B-4DD3-8101-63AAB0ACC1DE}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E2" s="13">
+        <v>400</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E3" s="13">
+        <v>400</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E4" s="13">
+        <v>400</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E5" s="13">
+        <v>400</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E6" s="13">
+        <v>400</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E7" s="13">
+        <v>400</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E8" s="13">
+        <v>400</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E9" s="13">
+        <v>400</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E10" s="13">
+        <v>400</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E11" s="13">
+        <v>400</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E12" s="13">
+        <v>400</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E13" s="13">
+        <v>400</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E14" s="13">
+        <v>400</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E15" s="13">
+        <v>400</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E16" s="13">
+        <v>400</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E17" s="13">
+        <v>400</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E18" s="13">
+        <v>400</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="13">
+        <v>400</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="13">
+        <v>400</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="13">
+        <v>400</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="13">
+        <v>400</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="11">
+        <v>123</v>
+      </c>
+      <c r="E23" s="13">
+        <v>400</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="11">
+        <v>123456789012</v>
+      </c>
+      <c r="E24" s="13">
+        <v>400</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="13">
+        <v>400</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8978664534</v>
+      </c>
+      <c r="E26" s="13">
+        <v>400</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{32A7FD83-E383-48D9-AD61-BCF7802541CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF8CE1-0890-470F-93D9-3E17797ABFF4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-21293</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0E8641-8F72-4AE3-8C92-F98600AD146E}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="L8">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{08E620B0-26BF-4209-80BC-7071E1C7F279}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{DB4C8F1F-9B6B-4DC2-A845-1230529CE1DC}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{39365CD1-92BC-4829-BD87-3D82700F259A}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{8165048A-B259-401C-A575-9E60EEA1A8F6}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{8C72C573-F381-470F-B5E5-C8D63475BADC}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{5ADE8277-0BB8-40EE-81CD-BB0F531739D4}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{7A66100D-0721-4E6C-9229-D8E85CD27F8D}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{8ECA1460-AAAF-48C9-B7D9-4D11A031F546}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{D0B937FC-754A-4247-A9B0-79E28433A9C1}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{A80637AF-62B8-4463-B3D2-9B0B50256D92}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{168FC686-1A82-4505-8B2F-69889D2DA63A}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{10874155-6786-456D-BB16-AE4DDEFEE2B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1697FFC3-4138-455D-9DF0-DE821539BABF}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3">
+        <v>400</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3">
+        <v>400</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>400</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3">
+        <v>400</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>400</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3">
+        <v>400</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3">
+        <v>400</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{106F28DC-7137-4A47-BC91-9AD046AD168A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E810112D-BC19-4110-9C6B-B42A29C70F8A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3">
+        <v>400</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3">
+        <v>400</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>400</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3">
+        <v>400</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>400</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3">
+        <v>400</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3">
+        <v>400</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7247841F-47F9-424F-AD49-0B9DDFE003E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC315B7D-931B-4D9C-B200-94F3FEE464E9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3">
+        <v>400</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>400</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>400</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3">
+        <v>400</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3">
+        <v>401</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3">
+        <v>401</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3">
+        <v>400</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3">
+        <v>401</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6407CC53-69FB-4F32-9B82-96057154284F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C2" s="3">
+        <v>400</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C3" s="3">
+        <v>400</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C4" s="3">
+        <v>400</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C5" s="3">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C6" s="3">
+        <v>400</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C7" s="3">
+        <v>400</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C8" s="3">
+        <v>400</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9550821167</v>
+      </c>
+      <c r="C9" s="3">
+        <v>400</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3">
+        <v>400</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3">
+        <v>400</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3">
+        <v>400</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
+        <v>400</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3">
+        <v>400</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{E34EB48F-4EF1-4811-B9A5-34F119F41471}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{615EF0E0-9B1D-4A54-B4D4-D66369ABFBFA}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{6BE2727D-5B45-4FA5-906E-6B4A070B0F70}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{A79A7D12-107C-4BCF-AFEC-DF262124F4DB}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{9FA5164E-9B30-439F-A2F1-3DD590366A98}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{2B239729-9AF3-40EC-82F1-0EF254C271E3}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{2C187BDA-0904-4E3D-A076-68351899D941}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{5B230FDE-922C-410F-BEA6-A97D8997FBBA}"/>
+    <hyperlink ref="A5" r:id="rId9" xr:uid="{77BDAB9C-FB92-49BD-AE34-32A1FF2EE829}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3657C9AD-E79E-4E29-B722-BED85EBBA73D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-21293</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBECC6-4E2D-45B1-B29F-CEFC140ADC90}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>